--- a/VTBCapital/TestData/TESTDATA.xlsx
+++ b/VTBCapital/TestData/TESTDATA.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="24465" windowHeight="5250"/>
   </bookViews>
   <sheets>
     <sheet name="Booking" sheetId="1" r:id="rId1"/>
     <sheet name="Ticketing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,9 +392,6 @@
     <t>PA756PB</t>
   </si>
   <si>
-    <t>1 Argyll Terrace, Tobermory, ISLE OF MULL PA756PB</t>
-  </si>
-  <si>
     <t>ARGYLL TERRACE</t>
   </si>
   <si>
@@ -1019,6 +1017,9 @@
   </si>
   <si>
     <t>TC_1019</t>
+  </si>
+  <si>
+    <t>1 Argyll Terrace, Tobermory, ISLE OF MULL PA75 6PB</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1758,7 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>110</v>
@@ -1817,7 +1818,7 @@
         <v>122</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>123</v>
+        <v>332</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="12" t="s">
@@ -1825,7 +1826,7 @@
       </c>
       <c r="Z2" s="10"/>
       <c r="AA2" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB2" s="10" t="s">
         <v>119</v>
@@ -1842,99 +1843,99 @@
       <c r="AJ2" s="10"/>
       <c r="AK2" s="10"/>
       <c r="AL2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM2" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AN2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AR2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AS2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AT2" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AU2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="O3" s="11">
         <v>1973</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>120</v>
@@ -1948,7 +1949,7 @@
         <v>58</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
@@ -1957,10 +1958,10 @@
       </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB3" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="AC3" s="11" t="s">
         <v>113</v>
@@ -1974,61 +1975,61 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM3" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO3" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="AO3" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="AP3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="AQ3" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="AR3" s="12"/>
       <c r="AS3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU3" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="AT3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AV3" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AV3" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="AW3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ3" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>113</v>
@@ -2044,25 +2045,25 @@
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="O4" s="11">
         <v>1982</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>120</v>
@@ -2076,7 +2077,7 @@
         <v>58</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -2085,10 +2086,10 @@
       </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB4" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="AC4" s="11" t="s">
         <v>113</v>
@@ -2102,61 +2103,61 @@
       <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>
       <c r="AL4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM4" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="AN4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="AR4" s="12"/>
       <c r="AS4" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AT4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU4" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AU4" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="AV4" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AW4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ4" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>113</v>
@@ -2175,22 +2176,22 @@
         <v>114</v>
       </c>
       <c r="K5" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="O5" s="11">
         <v>1982</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>120</v>
@@ -2204,7 +2205,7 @@
         <v>58</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -2213,10 +2214,10 @@
       </c>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC5" s="11" t="s">
         <v>113</v>
@@ -2230,61 +2231,61 @@
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM5" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AO5" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="AP5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="AQ5" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="AR5" s="12"/>
       <c r="AS5" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AT5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AU5" s="11" t="s">
+      <c r="AV5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AV5" s="11" t="s">
+      <c r="AW5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AW5" s="11" t="s">
+      <c r="AX5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY5" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ5" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>113</v>
@@ -2303,22 +2304,22 @@
         <v>114</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>184</v>
-      </c>
       <c r="N6" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O6" s="11">
         <v>1969</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="10" t="s">
         <v>120</v>
@@ -2332,7 +2333,7 @@
         <v>58</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -2341,10 +2342,10 @@
       </c>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB6" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="AC6" s="11" t="s">
         <v>113</v>
@@ -2358,52 +2359,52 @@
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO6" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AO6" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="AP6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="AQ6" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="AR6" s="12"/>
       <c r="AS6" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AT6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AU6" s="11" t="s">
+      <c r="AV6" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="AW6" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AW6" s="11" t="s">
+      <c r="AX6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ6" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -2426,25 +2427,25 @@
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K7" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>194</v>
       </c>
       <c r="O7" s="11">
         <v>1994</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>120</v>
@@ -2458,7 +2459,7 @@
         <v>58</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -2467,10 +2468,10 @@
       </c>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB7" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="AC7" s="11" t="s">
         <v>113</v>
@@ -2484,52 +2485,52 @@
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
       <c r="AL7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM7" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AM7" s="12" t="s">
-        <v>200</v>
-      </c>
       <c r="AN7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO7" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AO7" s="10" t="s">
+      <c r="AP7" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AP7" s="10" t="s">
+      <c r="AQ7" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="AQ7" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="AR7" s="12"/>
       <c r="AS7" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AU7" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="AV7" s="11" t="s">
         <v>113</v>
       </c>
       <c r="AW7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY7" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ7" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
@@ -2552,25 +2553,25 @@
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="M8" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O8" s="11">
         <v>1952</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>120</v>
@@ -2584,7 +2585,7 @@
         <v>58</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -2593,10 +2594,10 @@
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB8" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="AC8" s="11" t="s">
         <v>113</v>
@@ -2610,39 +2611,39 @@
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
       <c r="AL8" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM8" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO8" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="AO8" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="AP8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="AQ8" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="AR8" s="12"/>
       <c r="AS8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW8" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AT8" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU8" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW8" s="11" t="s">
-        <v>210</v>
-      </c>
       <c r="AX8" s="11" t="s">
         <v>113</v>
       </c>
@@ -2650,16 +2651,16 @@
         <v>113</v>
       </c>
       <c r="AZ8" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>112</v>
@@ -2684,19 +2685,19 @@
         <v>8</v>
       </c>
       <c r="L9" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="N9" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O9" s="11">
         <v>1956</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>120</v>
@@ -2710,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -2719,10 +2720,10 @@
       </c>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB9" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="AC9" s="11" t="s">
         <v>121</v>
@@ -2736,56 +2737,56 @@
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM9" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO9" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AO9" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="AP9" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ9" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="AQ9" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="AR9" s="12"/>
       <c r="AS9" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AT9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AU9" s="11" t="s">
+      <c r="AV9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AV9" s="11" t="s">
+      <c r="AW9" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AW9" s="11" t="s">
+      <c r="AX9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ9" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY9" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ9" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>112</v>
@@ -2807,22 +2808,22 @@
         <v>114</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="N10" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O10" s="11">
         <v>1960</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>120</v>
@@ -2836,7 +2837,7 @@
         <v>58</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -2845,10 +2846,10 @@
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB10" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="AC10" s="11" t="s">
         <v>113</v>
@@ -2862,52 +2863,52 @@
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO10" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AO10" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="AP10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ10" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="AQ10" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="AR10" s="12"/>
       <c r="AS10" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AT10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AU10" s="11" t="s">
+      <c r="AV10" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AV10" s="11" t="s">
+      <c r="AW10" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AW10" s="11" t="s">
+      <c r="AX10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ10" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ10" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
@@ -2933,22 +2934,22 @@
         <v>114</v>
       </c>
       <c r="K11" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="M11" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="O11" s="11">
         <v>1987</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>120</v>
@@ -2962,7 +2963,7 @@
         <v>58</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
@@ -2971,10 +2972,10 @@
       </c>
       <c r="Z11" s="11"/>
       <c r="AA11" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB11" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>233</v>
       </c>
       <c r="AC11" s="11" t="s">
         <v>113</v>
@@ -2988,38 +2989,38 @@
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
       <c r="AL11" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM11" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO11" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="AN11" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO11" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP11" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ11" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="AR11" s="12"/>
       <c r="AS11" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AT11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AU11" s="11" t="s">
+      <c r="AV11" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AV11" s="11" t="s">
+      <c r="AW11" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="AW11" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="AX11" s="11" t="s">
         <v>121</v>
@@ -3028,12 +3029,12 @@
         <v>113</v>
       </c>
       <c r="AZ11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -3059,22 +3060,22 @@
         <v>114</v>
       </c>
       <c r="K12" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="M12" s="13" t="s">
-        <v>239</v>
-      </c>
       <c r="N12" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O12" s="11">
         <v>1964</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>120</v>
@@ -3088,7 +3089,7 @@
         <v>58</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -3097,10 +3098,10 @@
       </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB12" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="AB12" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="AC12" s="11" t="s">
         <v>113</v>
@@ -3114,52 +3115,52 @@
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
       <c r="AL12" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM12" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AN12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO12" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="AO12" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="AP12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ12" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="AQ12" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="AR12" s="12"/>
       <c r="AS12" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AT12" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV12" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AV12" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="AW12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ12" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY12" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ12" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
@@ -3182,25 +3183,25 @@
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="M13" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O13" s="11">
         <v>1978</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>120</v>
@@ -3214,7 +3215,7 @@
         <v>58</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -3223,10 +3224,10 @@
       </c>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB13" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="AC13" s="11" t="s">
         <v>121</v>
@@ -3240,52 +3241,52 @@
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
       <c r="AL13" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AN13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO13" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AO13" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="AP13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ13" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="AQ13" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="AR13" s="12"/>
       <c r="AS13" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT13" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU13" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV13" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AV13" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="AW13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ13" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ13" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
@@ -3311,22 +3312,22 @@
         <v>114</v>
       </c>
       <c r="K14" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="M14" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O14" s="11">
         <v>1967</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>120</v>
@@ -3340,7 +3341,7 @@
         <v>58</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -3349,10 +3350,10 @@
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB14" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="AB14" s="11" t="s">
-        <v>259</v>
       </c>
       <c r="AC14" s="11" t="s">
         <v>113</v>
@@ -3366,39 +3367,39 @@
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
       <c r="AL14" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AN14" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO14" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AO14" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="AP14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ14" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="AQ14" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="AR14" s="12"/>
       <c r="AS14" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU14" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW14" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="AT14" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU14" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AV14" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW14" s="11" t="s">
-        <v>261</v>
-      </c>
       <c r="AX14" s="11" t="s">
         <v>113</v>
       </c>
@@ -3406,12 +3407,12 @@
         <v>113</v>
       </c>
       <c r="AZ14" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
@@ -3434,25 +3435,25 @@
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="N15" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="O15" s="11">
         <v>1976</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>120</v>
@@ -3466,7 +3467,7 @@
         <v>58</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
@@ -3475,10 +3476,10 @@
       </c>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB15" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="AC15" s="11" t="s">
         <v>113</v>
@@ -3492,59 +3493,59 @@
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
       <c r="AL15" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM15" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AN15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AO15" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="AP15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="AQ15" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="AR15" s="12"/>
       <c r="AS15" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AT15" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV15" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AV15" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="AW15" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ15" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ15" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>113</v>
@@ -3566,10 +3567,10 @@
         <v>9</v>
       </c>
       <c r="L16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M16" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>272</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>118</v>
@@ -3578,7 +3579,7 @@
         <v>1980</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>120</v>
@@ -3592,7 +3593,7 @@
         <v>58</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
@@ -3601,10 +3602,10 @@
       </c>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB16" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="AB16" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="AC16" s="11" t="s">
         <v>113</v>
@@ -3618,52 +3619,52 @@
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM16" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AN16" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO16" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="AO16" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="AP16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ16" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="AQ16" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="AR16" s="12"/>
       <c r="AS16" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AT16" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU16" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AV16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW16" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AW16" s="11" t="s">
+      <c r="AX16" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY16" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ16" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ16" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
@@ -3689,22 +3690,22 @@
         <v>114</v>
       </c>
       <c r="K17" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="M17" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>281</v>
-      </c>
       <c r="N17" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O17" s="11">
         <v>1967</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>120</v>
@@ -3718,7 +3719,7 @@
         <v>58</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
@@ -3727,10 +3728,10 @@
       </c>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB17" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="AB17" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="AC17" s="11" t="s">
         <v>113</v>
@@ -3744,52 +3745,52 @@
       <c r="AJ17" s="10"/>
       <c r="AK17" s="10"/>
       <c r="AL17" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM17" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AO17" s="10" t="s">
+      <c r="AP17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AP17" s="10" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ17" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AR17" s="12"/>
       <c r="AS17" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AT17" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU17" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV17" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AV17" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="AW17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ17" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ17" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
@@ -3812,25 +3813,25 @@
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K18" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>289</v>
-      </c>
       <c r="M18" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O18" s="11">
         <v>1993</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>120</v>
@@ -3844,23 +3845,23 @@
         <v>58</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W18" s="11"/>
       <c r="X18" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y18" s="13" t="s">
         <v>58</v>
       </c>
       <c r="Z18" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA18" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="AA18" s="11" t="s">
+      <c r="AB18" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="AB18" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="AC18" s="11" t="s">
         <v>113</v>
@@ -3874,38 +3875,38 @@
       <c r="AJ18" s="10"/>
       <c r="AK18" s="10"/>
       <c r="AL18" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM18" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN18" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO18" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AP18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ18" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="AQ18" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="AR18" s="12"/>
       <c r="AS18" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AT18" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU18" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AV18" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AW18" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX18" s="11" t="s">
         <v>113</v>
@@ -3914,12 +3915,12 @@
         <v>113</v>
       </c>
       <c r="AZ18" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
@@ -3942,16 +3943,16 @@
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K19" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="M19" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>118</v>
@@ -3960,7 +3961,7 @@
         <v>1972</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>120</v>
@@ -3974,7 +3975,7 @@
         <v>58</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -3983,10 +3984,10 @@
       </c>
       <c r="Z19" s="11"/>
       <c r="AA19" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB19" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>303</v>
       </c>
       <c r="AC19" s="11" t="s">
         <v>113</v>
@@ -4000,52 +4001,52 @@
       <c r="AJ19" s="10"/>
       <c r="AK19" s="10"/>
       <c r="AL19" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM19" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AN19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO19" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AO19" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="AP19" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ19" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="AQ19" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="AR19" s="12"/>
       <c r="AS19" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AT19" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU19" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AV19" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW19" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AW19" s="11" t="s">
+      <c r="AX19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ19" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX19" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY19" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ19" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
@@ -4071,22 +4072,22 @@
         <v>114</v>
       </c>
       <c r="K20" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>307</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>118</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O20" s="11">
         <v>1985</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>120</v>
@@ -4100,21 +4101,21 @@
         <v>58</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y20" s="13" t="s">
         <v>58</v>
       </c>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB20" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="AB20" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="AC20" s="11" t="s">
         <v>113</v>
@@ -4128,47 +4129,47 @@
       <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
       <c r="AL20" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM20" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO20" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AO20" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="AP20" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ20" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="AQ20" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="AR20" s="12"/>
       <c r="AS20" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AT20" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU20" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV20" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="AV20" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="AW20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ20" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="AX20" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY20" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ20" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/VTBCapital/TestData/TESTDATA.xlsx
+++ b/VTBCapital/TestData/TESTDATA.xlsx
@@ -352,9 +352,6 @@
     <t>IdentityPreference</t>
   </si>
   <si>
-    <t>120 DAYS NOTICE ACCOUNT</t>
-  </si>
-  <si>
     <t>INDIVIDUAL ACCOUNT</t>
   </si>
   <si>
@@ -433,9 +430,6 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>1 YEAR FIXED TERM</t>
-  </si>
-  <si>
     <t>EXISTING CUSTOMER</t>
   </si>
   <si>
@@ -481,9 +475,6 @@
     <t>Reference account</t>
   </si>
   <si>
-    <t>2 YEAR FIXED TERM</t>
-  </si>
-  <si>
     <t>JOINT ACCOUNT</t>
   </si>
   <si>
@@ -526,9 +517,6 @@
     <t>00153148</t>
   </si>
   <si>
-    <t>5 YEAR TRACKER</t>
-  </si>
-  <si>
     <t>BOTH EXISTING CUSTOMERS</t>
   </si>
   <si>
@@ -559,9 +547,6 @@
     <t>00028604</t>
   </si>
   <si>
-    <t>3 YEAR FIXED TERM</t>
-  </si>
-  <si>
     <t>ONE NEW AND ONE EXISTING CUSTOMER</t>
   </si>
   <si>
@@ -1064,6 +1049,21 @@
   </si>
   <si>
     <t>SW17 8ER</t>
+  </si>
+  <si>
+    <t>120 Day Notice Account</t>
+  </si>
+  <si>
+    <t>1 Year Fixed Term</t>
+  </si>
+  <si>
+    <t>2 Year Fixed Term</t>
+  </si>
+  <si>
+    <t>5 Year Tracker</t>
+  </si>
+  <si>
+    <t>3 Year Fixed Term</t>
   </si>
 </sst>
 </file>
@@ -1238,252 +1238,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill>
@@ -2158,7 +1913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2168,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AY22" sqref="AY22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,16 +2145,16 @@
         <v>109</v>
       </c>
       <c r="BA1" s="12" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="BB1" s="12" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="BC1" s="12" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="BD1" s="12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="BE1" s="10"/>
       <c r="BF1" s="10"/>
@@ -18732,56 +18487,56 @@
     </row>
     <row r="2" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="O2" s="4">
         <v>1987</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -18789,10 +18544,10 @@
         <v>58</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="6" t="s">
@@ -18800,13 +18555,13 @@
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
@@ -18817,49 +18572,49 @@
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA2" s="4"/>
       <c r="BB2" s="4"/>
@@ -18868,58 +18623,58 @@
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="O3" s="5">
         <v>1973</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -18927,7 +18682,7 @@
         <v>58</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W3" s="9"/>
       <c r="X3" s="5"/>
@@ -18936,13 +18691,13 @@
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
@@ -18953,47 +18708,47 @@
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AN3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AO3" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="AP3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="AR3" s="6"/>
       <c r="AS3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AT3" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="AW3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA3" s="4"/>
       <c r="BB3" s="4"/>
@@ -19002,56 +18757,56 @@
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>153</v>
+        <v>345</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="O4" s="5">
         <v>1982</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -19059,7 +18814,7 @@
         <v>58</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W4" s="9"/>
       <c r="X4" s="5"/>
@@ -19068,13 +18823,13 @@
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -19085,47 +18840,47 @@
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AN4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO4" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="AP4" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AR4" s="6"/>
       <c r="AS4" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AT4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AU4" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="AV4" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AW4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
@@ -19134,56 +18889,56 @@
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O5" s="5">
         <v>1982</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -19191,7 +18946,7 @@
         <v>58</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="W5" s="9"/>
       <c r="X5" s="5"/>
@@ -19200,13 +18955,13 @@
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
@@ -19217,47 +18972,47 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM5" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AN5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO5" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="AP5" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AR5" s="6"/>
       <c r="AS5" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AT5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AV5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AW5" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
@@ -19266,56 +19021,56 @@
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>179</v>
+        <v>347</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O6" s="5">
         <v>1969</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -19323,7 +19078,7 @@
         <v>58</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="W6" s="9"/>
       <c r="X6" s="5"/>
@@ -19332,13 +19087,13 @@
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
@@ -19349,47 +19104,47 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM6" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AP6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="AR6" s="6"/>
       <c r="AS6" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AT6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AU6" s="5" t="s">
+      <c r="AV6" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AV6" s="5" t="s">
+      <c r="AW6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AW6" s="5" t="s">
+      <c r="AX6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
@@ -19398,54 +19153,54 @@
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O7" s="5">
         <v>1994</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -19453,7 +19208,7 @@
         <v>58</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="W7" s="9"/>
       <c r="X7" s="5"/>
@@ -19462,13 +19217,13 @@
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
@@ -19479,47 +19234,47 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AM7" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AN7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO7" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO7" s="4" t="s">
+      <c r="AP7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AP7" s="4" t="s">
+      <c r="AQ7" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="AQ7" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="AR7" s="6"/>
       <c r="AS7" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AT7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AU7" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="AV7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AW7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
@@ -19528,54 +19283,54 @@
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O8" s="5">
         <v>1952</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -19583,7 +19338,7 @@
         <v>58</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="5"/>
@@ -19592,13 +19347,13 @@
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
@@ -19609,47 +19364,47 @@
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AM8" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AN8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AO8" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="AP8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="AR8" s="6"/>
       <c r="AS8" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AT8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU8" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AU8" s="5" t="s">
+      <c r="AV8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AV8" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="AW8" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
@@ -19658,56 +19413,56 @@
     </row>
     <row r="9" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O9" s="5">
         <v>1956</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -19715,10 +19470,10 @@
         <v>58</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="7" t="s">
@@ -19726,13 +19481,13 @@
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
@@ -19743,41 +19498,41 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM9" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AN9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO9" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO9" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="AP9" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AQ9" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AR9" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AS9" s="6"/>
       <c r="AT9" s="6"/>
       <c r="AU9" s="5"/>
       <c r="AV9" s="5"/>
       <c r="AW9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ9" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
@@ -19786,56 +19541,56 @@
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O10" s="5">
         <v>1960</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -19843,10 +19598,10 @@
         <v>58</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="7" t="s">
@@ -19854,13 +19609,13 @@
       </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
@@ -19871,41 +19626,41 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AN10" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AP10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AQ10" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="AR10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AS10" s="6"/>
       <c r="AT10" s="6"/>
       <c r="AU10" s="5"/>
       <c r="AV10" s="5"/>
       <c r="AW10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ10" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
@@ -19914,54 +19669,54 @@
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O11" s="5">
         <v>1987</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -19969,7 +19724,7 @@
         <v>58</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="W11" s="9"/>
       <c r="X11" s="5"/>
@@ -19978,13 +19733,13 @@
       </c>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -19995,47 +19750,47 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AM11" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AN11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO11" s="4" t="s">
+      <c r="AP11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AP11" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="AQ11" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AR11" s="6"/>
       <c r="AS11" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AT11" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AU11" s="5" t="s">
+      <c r="AV11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AV11" s="5" t="s">
+      <c r="AW11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AW11" s="5" t="s">
+      <c r="AX11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ11" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ11" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
@@ -20044,54 +19799,54 @@
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O12" s="5">
         <v>1964</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -20099,7 +19854,7 @@
         <v>58</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="W12" s="9"/>
       <c r="X12" s="5"/>
@@ -20108,13 +19863,13 @@
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
@@ -20125,47 +19880,47 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AM12" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AN12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO12" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AO12" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="AP12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AQ12" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="AR12" s="6"/>
       <c r="AS12" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AT12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU12" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AV12" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AW12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ12" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ12" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
@@ -20174,54 +19929,54 @@
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O13" s="5">
         <v>1978</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -20229,7 +19984,7 @@
         <v>58</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="5"/>
@@ -20238,13 +19993,13 @@
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
@@ -20255,47 +20010,47 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AM13" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AN13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO13" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="AP13" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AQ13" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AR13" s="6"/>
       <c r="AS13" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AT13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AW13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ13" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ13" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
@@ -20304,54 +20059,54 @@
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O14" s="5">
         <v>1967</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -20359,7 +20114,7 @@
         <v>58</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W14" s="9"/>
       <c r="X14" s="5"/>
@@ -20368,13 +20123,13 @@
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
@@ -20385,47 +20140,47 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AM14" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AO14" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AP14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AQ14" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="AR14" s="6"/>
       <c r="AS14" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AT14" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AW14" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
@@ -20434,54 +20189,54 @@
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O15" s="5">
         <v>1976</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -20489,7 +20244,7 @@
         <v>58</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="W15" s="9"/>
       <c r="X15" s="5"/>
@@ -20498,13 +20253,13 @@
       </c>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
@@ -20515,47 +20270,47 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AM15" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AN15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO15" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="AP15" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AQ15" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AR15" s="6"/>
       <c r="AS15" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AT15" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU15" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AW15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ15" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ15" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
@@ -20564,54 +20319,54 @@
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O16" s="5">
         <v>1980</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -20619,7 +20374,7 @@
         <v>58</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="W16" s="9"/>
       <c r="X16" s="5"/>
@@ -20628,13 +20383,13 @@
       </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
@@ -20645,47 +20400,47 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AO16" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AP16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AQ16" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="AR16" s="6"/>
       <c r="AS16" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AT16" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AV16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW16" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AW16" s="5" t="s">
+      <c r="AX16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ16" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ16" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
@@ -20694,54 +20449,54 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O17" s="5">
         <v>1967</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -20749,7 +20504,7 @@
         <v>58</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="5"/>
@@ -20758,13 +20513,13 @@
       </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
@@ -20775,47 +20530,47 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AN17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO17" s="4" t="s">
+      <c r="AP17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AP17" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="AQ17" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AT17" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU17" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AV17" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AW17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ17" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ17" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
@@ -20824,54 +20579,54 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O18" s="5">
         <v>1993</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -20879,26 +20634,26 @@
         <v>58</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="W18" s="9"/>
       <c r="X18" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Y18" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
@@ -20909,47 +20664,47 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO18" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AP18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ18" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AQ18" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AT18" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AV18" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AW18" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AX18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
@@ -20958,54 +20713,54 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O19" s="5">
         <v>1972</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -21013,7 +20768,7 @@
         <v>58</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="W19" s="9"/>
       <c r="X19" s="5"/>
@@ -21022,13 +20777,13 @@
       </c>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
@@ -21039,47 +20794,47 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AN19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO19" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="AP19" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AQ19" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AT19" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU19" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AV19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW19" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AW19" s="5" t="s">
+      <c r="AX19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ19" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="AX19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ19" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="BA19" s="4"/>
       <c r="BB19" s="4"/>
@@ -21088,56 +20843,56 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O20" s="5">
         <v>1985</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -21145,26 +20900,26 @@
         <v>58</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Y20" s="6" t="s">
         <v>58</v>
       </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
@@ -21175,78 +20930,78 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AN20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AO20" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="AP20" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AQ20" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AR20" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AS20" s="6"/>
       <c r="AT20" s="6"/>
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
       <c r="AW20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AX20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ20" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="BA20" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="BB20" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="BC20" s="4"/>
       <c r="BD20" s="4"/>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -21282,58 +21037,58 @@
       <c r="AQ21" s="5"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AT21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AU21" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="AV21" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AW21" s="5"/>
       <c r="AX21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="BB21" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="BC21" s="4"/>
       <c r="BD21" s="4"/>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -21372,322 +21127,322 @@
       <c r="AQ22" s="5"/>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AT22" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AU22" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="AV22" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AW22" s="5"/>
       <c r="AX22" s="5"/>
       <c r="AY22" s="5"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="BB22" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="BC22" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="BD22" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A21">
-    <cfRule type="expression" dxfId="74" priority="83">
+    <cfRule type="expression" dxfId="57" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:N20 M2:O4 O6:O20 B2:J20 W2:W19 AT2:AZ20 AC2:AQ2 Y2:Y19 AC3:AR20 Q2:U19 B1:BD1">
-    <cfRule type="expression" dxfId="73" priority="82">
+    <cfRule type="expression" dxfId="56" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
-    <cfRule type="expression" dxfId="72" priority="81">
+    <cfRule type="expression" dxfId="55" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
-    <cfRule type="expression" dxfId="71" priority="80">
+    <cfRule type="expression" dxfId="54" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P4 P6:P19">
-    <cfRule type="expression" dxfId="70" priority="79">
+    <cfRule type="expression" dxfId="53" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V19">
-    <cfRule type="expression" dxfId="69" priority="78">
+    <cfRule type="expression" dxfId="52" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X19">
-    <cfRule type="expression" dxfId="68" priority="77">
+    <cfRule type="expression" dxfId="51" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z19">
-    <cfRule type="expression" dxfId="67" priority="76">
+    <cfRule type="expression" dxfId="50" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA19">
-    <cfRule type="expression" dxfId="66" priority="75">
+    <cfRule type="expression" dxfId="49" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB19">
-    <cfRule type="expression" dxfId="65" priority="74">
+    <cfRule type="expression" dxfId="48" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS2:AS20">
-    <cfRule type="expression" dxfId="64" priority="73">
+    <cfRule type="expression" dxfId="47" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR2">
-    <cfRule type="expression" dxfId="63" priority="72">
+    <cfRule type="expression" dxfId="46" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="62" priority="60">
+    <cfRule type="expression" dxfId="45" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="44" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="60" priority="58">
+    <cfRule type="expression" dxfId="43" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:H21">
-    <cfRule type="expression" dxfId="59" priority="57">
+    <cfRule type="expression" dxfId="42" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:O21 J21 W20 AU21:AW21 AC21:AR21 S20:T20 AZ21">
-    <cfRule type="expression" dxfId="58" priority="56">
+    <cfRule type="expression" dxfId="41" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="57" priority="55">
+    <cfRule type="expression" dxfId="40" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="56" priority="54">
+    <cfRule type="expression" dxfId="39" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS21">
-    <cfRule type="expression" dxfId="55" priority="47">
+    <cfRule type="expression" dxfId="38" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="53" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="52" priority="34">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="expression" dxfId="51" priority="33">
+    <cfRule type="expression" dxfId="35" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="expression" dxfId="50" priority="32">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT21">
-    <cfRule type="expression" dxfId="48" priority="46">
+    <cfRule type="expression" dxfId="33" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA2:BD20">
-    <cfRule type="expression" dxfId="47" priority="45">
+    <cfRule type="expression" dxfId="32" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB21:BD21">
-    <cfRule type="expression" dxfId="46" priority="44">
+    <cfRule type="expression" dxfId="31" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA21">
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="30" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="29" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="43" priority="40">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="42" priority="39">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="26" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:H22">
-    <cfRule type="expression" dxfId="40" priority="37">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:O22 J22 W22 AU22:AZ22 Y22 AC22:AR22 Q22:U22">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22">
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22">
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22">
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS22">
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT22">
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB22:BD22">
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA22">
-    <cfRule type="expression" dxfId="27" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I22">
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="15" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX21:AY21">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20">
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z21">
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA20">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB20">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y20">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z20">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:R20">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21 Y21 Q21:U21">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21697,9 +21452,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ22">
       <formula1>"MOBILE,EMAIL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B22">
-      <formula1>"120 DAYS NOTICE ACCOUNT,1 YEAR FIXED TERM,2 YEAR FIXED TERM,5 YEAR TRACKER,3 YEAR FIXED TERM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D22">
       <formula1>"NEW CUSTOMER,EXISTING CUSTOMER, BOTH NEW CUSTOMERS, BOTH EXISTING CUSTOMERS, ONE NEW AND ONE EXISTING CUSTOMER"</formula1>
@@ -21730,6 +21482,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:H22 AX2:AY22 AC2:AK22 R2:T20 R22:T22">
       <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>"120 Day Notice Account,1 Year Fixed Term,2 Year Fixed Term,5 Year Tracker,3 Year Fixed Term"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/VTBCapital/TestData/TESTDATA.xlsx
+++ b/VTBCapital/TestData/TESTDATA.xlsx
@@ -1913,7 +1913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1924,7 +1924,7 @@
   <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VTBCapital/TestData/TESTDATA.xlsx
+++ b/VTBCapital/TestData/TESTDATA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="350">
   <si>
     <t>TESTID</t>
   </si>
@@ -1064,6 +1064,12 @@
   </si>
   <si>
     <t>3 Year Fixed Term</t>
+  </si>
+  <si>
+    <t>WLSXVXP7</t>
+  </si>
+  <si>
+    <t>rf4GrMe6+</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1244,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1924,7 +1937,7 @@
   <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21057,10 +21070,10 @@
       </c>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="4" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="BB21" s="4" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="BC21" s="4"/>
       <c r="BD21" s="4"/>
@@ -21157,291 +21170,296 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A21">
+    <cfRule type="expression" dxfId="58" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:N20 M2:O4 O6:O20 B2:J20 W2:W19 AT2:AZ20 AC2:AQ2 Y2:Y19 AC3:AR20 Q2:U19 B1:BD1">
     <cfRule type="expression" dxfId="57" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:N20 M2:O4 O6:O20 B2:J20 W2:W19 AT2:AZ20 AC2:AQ2 Y2:Y19 AC3:AR20 Q2:U19 B1:BD1">
+  <conditionalFormatting sqref="K2:K20">
     <cfRule type="expression" dxfId="56" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K20">
+  <conditionalFormatting sqref="L2:L20">
     <cfRule type="expression" dxfId="55" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L20">
+  <conditionalFormatting sqref="P2:P4 P6:P19">
     <cfRule type="expression" dxfId="54" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P4 P6:P19">
+  <conditionalFormatting sqref="V2:V19">
     <cfRule type="expression" dxfId="53" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V19">
+  <conditionalFormatting sqref="X2:X19">
     <cfRule type="expression" dxfId="52" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X19">
+  <conditionalFormatting sqref="Z2:Z19">
     <cfRule type="expression" dxfId="51" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z19">
+  <conditionalFormatting sqref="AA2:AA19">
     <cfRule type="expression" dxfId="50" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA19">
+  <conditionalFormatting sqref="AB2:AB19">
     <cfRule type="expression" dxfId="49" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB19">
+  <conditionalFormatting sqref="AS2:AS20">
     <cfRule type="expression" dxfId="48" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AS20">
+  <conditionalFormatting sqref="AR2">
     <cfRule type="expression" dxfId="47" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR2">
-    <cfRule type="expression" dxfId="46" priority="72">
+  <conditionalFormatting sqref="B21">
+    <cfRule type="expression" dxfId="46" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="45" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="44" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="E21:H21">
     <cfRule type="expression" dxfId="43" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:H21">
+  <conditionalFormatting sqref="M21:O21 J21 W20 AU21:AW21 AC21:AR21 S20:T20 AZ21">
     <cfRule type="expression" dxfId="42" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:O21 J21 W20 AU21:AW21 AC21:AR21 S20:T20 AZ21">
+  <conditionalFormatting sqref="K21">
     <cfRule type="expression" dxfId="41" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+  <conditionalFormatting sqref="L21">
     <cfRule type="expression" dxfId="40" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="39" priority="54">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AS21">
-    <cfRule type="expression" dxfId="38" priority="47">
+    <cfRule type="expression" dxfId="39" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="38" priority="36">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
     <cfRule type="expression" dxfId="37" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="P22">
     <cfRule type="expression" dxfId="36" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
+  <conditionalFormatting sqref="V22">
     <cfRule type="expression" dxfId="35" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
-    <cfRule type="expression" dxfId="34" priority="32">
+  <conditionalFormatting sqref="AT21">
+    <cfRule type="expression" dxfId="34" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT21">
+  <conditionalFormatting sqref="BA2:BD20">
     <cfRule type="expression" dxfId="33" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BD20">
+  <conditionalFormatting sqref="BC21:BD21">
     <cfRule type="expression" dxfId="32" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB21:BD21">
+  <conditionalFormatting sqref="BA21">
     <cfRule type="expression" dxfId="31" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA21">
+  <conditionalFormatting sqref="A22">
     <cfRule type="expression" dxfId="30" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="29" priority="42">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="C22">
     <cfRule type="expression" dxfId="28" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="27" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="E22:H22">
     <cfRule type="expression" dxfId="26" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:H22">
+  <conditionalFormatting sqref="M22:O22 J22 W22 AU22:AZ22 Y22 AC22:AR22 Q22:U22">
     <cfRule type="expression" dxfId="25" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:O22 J22 W22 AU22:AZ22 Y22 AC22:AR22 Q22:U22">
-    <cfRule type="expression" dxfId="24" priority="36">
+  <conditionalFormatting sqref="X22">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X22">
+  <conditionalFormatting sqref="Z22">
     <cfRule type="expression" dxfId="23" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z22">
+  <conditionalFormatting sqref="AA22">
     <cfRule type="expression" dxfId="22" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22">
+  <conditionalFormatting sqref="AB22">
     <cfRule type="expression" dxfId="21" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB22">
+  <conditionalFormatting sqref="AS22">
     <cfRule type="expression" dxfId="20" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS22">
+  <conditionalFormatting sqref="AT22">
     <cfRule type="expression" dxfId="19" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT22">
+  <conditionalFormatting sqref="BB22:BD22">
     <cfRule type="expression" dxfId="18" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB22:BD22">
+  <conditionalFormatting sqref="BA22">
     <cfRule type="expression" dxfId="17" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA22">
+  <conditionalFormatting sqref="I21:I22">
     <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I22">
+  <conditionalFormatting sqref="AX21:AY21">
     <cfRule type="expression" dxfId="15" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX21:AY21">
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20">
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21">
     <cfRule type="expression" dxfId="12" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21">
+  <conditionalFormatting sqref="AA20">
     <cfRule type="expression" dxfId="11" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA20">
+  <conditionalFormatting sqref="AB20">
     <cfRule type="expression" dxfId="10" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB20">
+  <conditionalFormatting sqref="Y20">
     <cfRule type="expression" dxfId="9" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y20">
-    <cfRule type="expression" dxfId="8" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z20">
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:R20">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20">
     <cfRule type="expression" dxfId="6" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U20">
+  <conditionalFormatting sqref="V20">
     <cfRule type="expression" dxfId="5" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V20">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="P21">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
+  <conditionalFormatting sqref="V21">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V21">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W21 Y21 Q21:U21">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/VTBCapital/TestData/TESTDATA.xlsx
+++ b/VTBCapital/TestData/TESTDATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="AOP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="350">
   <si>
     <t>TESTID</t>
   </si>
@@ -1936,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18566,7 +18566,9 @@
       <c r="Y2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="AA2" s="4" t="s">
         <v>122</v>
       </c>

--- a/VTBCapital/TestData/TESTDATA.xlsx
+++ b/VTBCapital/TestData/TESTDATA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="350">
   <si>
     <t>TESTID</t>
   </si>
@@ -1926,7 +1926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1937,7 +1937,7 @@
   <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18566,9 +18566,7 @@
       <c r="Y2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="4" t="s">
-        <v>285</v>
-      </c>
+      <c r="Z2" s="4"/>
       <c r="AA2" s="4" t="s">
         <v>122</v>
       </c>

--- a/VTBCapital/TestData/TESTDATA.xlsx
+++ b/VTBCapital/TestData/TESTDATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="20490" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="AOP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="350">
   <si>
     <t>TESTID</t>
   </si>
@@ -433,9 +433,6 @@
     <t>EXISTING CUSTOMER</t>
   </si>
   <si>
-    <t>Individual Account Only</t>
-  </si>
-  <si>
     <t>MISS</t>
   </si>
   <si>
@@ -937,9 +934,6 @@
     <t>TC_1001</t>
   </si>
   <si>
-    <t>TC_1002</t>
-  </si>
-  <si>
     <t>TC_1003</t>
   </si>
   <si>
@@ -1054,9 +1048,6 @@
     <t>120 Day Notice Account</t>
   </si>
   <si>
-    <t>1 Year Fixed Term</t>
-  </si>
-  <si>
     <t>2 Year Fixed Term</t>
   </si>
   <si>
@@ -1070,6 +1061,15 @@
   </si>
   <si>
     <t>rf4GrMe6+</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>AlternatePhoneNumber</t>
+  </si>
+  <si>
+    <t>SIT_FA_AOP_13_05</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1244,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="61">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1936,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,23 +1995,24 @@
     <col min="37" max="37" width="12.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="31.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="46" style="10" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="46" style="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.140625" style="10"/>
+    <col min="40" max="40" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="46" style="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="46" style="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7" style="10" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26" style="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="28.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2119,57 +2134,59 @@
         <v>96</v>
       </c>
       <c r="AN1" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AW1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="BC1" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="BD1" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="BC1" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="BE1" s="10"/>
       <c r="BF1" s="10"/>
       <c r="BG1" s="10"/>
       <c r="BH1" s="10"/>
@@ -18500,10 +18517,10 @@
     </row>
     <row r="2" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>110</v>
@@ -18560,7 +18577,7 @@
         <v>121</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="6" t="s">
@@ -18590,62 +18607,65 @@
       <c r="AM2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>112</v>
       </c>
       <c r="AZ2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA2" s="4"/>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>112</v>
@@ -18659,29 +18679,27 @@
       <c r="H3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="O3" s="5">
         <v>1973</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>119</v>
@@ -18695,7 +18713,7 @@
         <v>58</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W3" s="9"/>
       <c r="X3" s="5"/>
@@ -18704,10 +18722,10 @@
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="AC3" s="5" t="s">
         <v>112</v>
@@ -18724,62 +18742,65 @@
         <v>123</v>
       </c>
       <c r="AM3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AN3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6" t="s">
+      <c r="AU3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AT3" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU3" s="5" t="s">
+      <c r="AW3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AV3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW3" s="5" t="s">
+      <c r="AX3" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA3" s="4"/>
       <c r="BB3" s="4"/>
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>112</v>
@@ -18795,25 +18816,25 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="O4" s="5">
         <v>1982</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>119</v>
@@ -18827,7 +18848,7 @@
         <v>58</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W4" s="9"/>
       <c r="X4" s="5"/>
@@ -18836,10 +18857,10 @@
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>112</v>
@@ -18856,62 +18877,65 @@
         <v>123</v>
       </c>
       <c r="AM4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AN4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AR4" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AQ4" s="5" t="s">
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT4" s="6" t="s">
+      <c r="AU4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU4" s="5" t="s">
+      <c r="AV4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AV4" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="AW4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX4" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX4" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="AZ4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>112</v>
@@ -18930,22 +18954,22 @@
         <v>113</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="O5" s="5">
         <v>1982</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>119</v>
@@ -18959,7 +18983,7 @@
         <v>58</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W5" s="9"/>
       <c r="X5" s="5"/>
@@ -18968,10 +18992,10 @@
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC5" s="5" t="s">
         <v>112</v>
@@ -18988,62 +19012,65 @@
         <v>123</v>
       </c>
       <c r="AM5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AN5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT5" s="6" t="s">
+      <c r="AU5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AV5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AW5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX5" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="AZ5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA5" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>112</v>
@@ -19062,22 +19089,22 @@
         <v>113</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="N6" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O6" s="5">
         <v>1969</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>119</v>
@@ -19091,7 +19118,7 @@
         <v>58</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W6" s="9"/>
       <c r="X6" s="5"/>
@@ -19100,10 +19127,10 @@
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB6" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="AC6" s="5" t="s">
         <v>112</v>
@@ -19120,53 +19147,56 @@
         <v>123</v>
       </c>
       <c r="AM6" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AN6" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT6" s="6" t="s">
+      <c r="AU6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU6" s="5" t="s">
+      <c r="AV6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AV6" s="5" t="s">
+      <c r="AW6" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AW6" s="5" t="s">
+      <c r="AX6" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX6" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY6" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ6" s="4" t="s">
+      <c r="AZ6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA6" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -19189,25 +19219,25 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="O7" s="5">
         <v>1994</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>119</v>
@@ -19221,7 +19251,7 @@
         <v>58</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W7" s="9"/>
       <c r="X7" s="5"/>
@@ -19230,10 +19260,10 @@
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="AC7" s="5" t="s">
         <v>112</v>
@@ -19247,56 +19277,59 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM7" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AM7" s="6" t="s">
+      <c r="AN7" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AN7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AT7" s="6" t="s">
+      <c r="AU7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU7" s="5" t="s">
+      <c r="AV7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AV7" s="5" t="s">
+      <c r="AW7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AW7" s="5" t="s">
+      <c r="AX7" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX7" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ7" s="4" t="s">
+      <c r="AZ7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA7" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -19319,25 +19352,25 @@
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O8" s="5">
         <v>1952</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>119</v>
@@ -19351,7 +19384,7 @@
         <v>58</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W8" s="9"/>
       <c r="X8" s="5"/>
@@ -19360,10 +19393,10 @@
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB8" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>112</v>
@@ -19377,65 +19410,68 @@
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AN8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6" t="s">
+      <c r="AU8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX8" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="AT8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ8" s="4" t="s">
+      <c r="AZ8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>112</v>
@@ -19457,19 +19493,19 @@
         <v>8</v>
       </c>
       <c r="L9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="N9" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O9" s="5">
         <v>1956</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>119</v>
@@ -19483,10 +19519,10 @@
         <v>58</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="7" t="s">
@@ -19494,10 +19530,10 @@
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB9" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="AC9" s="5" t="s">
         <v>112</v>
@@ -19514,56 +19550,59 @@
         <v>123</v>
       </c>
       <c r="AM9" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AN9" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN9" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO9" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AO9" s="4" t="s">
+      <c r="AP9" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AP9" s="4" t="s">
+      <c r="AQ9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR9" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AQ9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR9" s="6" t="s">
+      <c r="AS9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AS9" s="6"/>
       <c r="AT9" s="6"/>
-      <c r="AU9" s="5"/>
+      <c r="AU9" s="6"/>
       <c r="AV9" s="5"/>
-      <c r="AW9" s="5" t="s">
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX9" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ9" s="4" t="s">
+      <c r="AZ9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>112</v>
@@ -19582,22 +19621,22 @@
         <v>113</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="N10" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O10" s="5">
         <v>1960</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>119</v>
@@ -19611,10 +19650,10 @@
         <v>58</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="7" t="s">
@@ -19622,10 +19661,10 @@
       </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="AC10" s="5" t="s">
         <v>112</v>
@@ -19642,47 +19681,50 @@
         <v>123</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP10" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AO10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP10" s="4" t="s">
+      <c r="AQ10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AQ10" s="4" t="s">
+      <c r="AR10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AR10" s="6" t="s">
+      <c r="AS10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AS10" s="6"/>
       <c r="AT10" s="6"/>
-      <c r="AU10" s="5"/>
+      <c r="AU10" s="6"/>
       <c r="AV10" s="5"/>
-      <c r="AW10" s="5" t="s">
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX10" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ10" s="4" t="s">
+      <c r="AZ10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA10" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
@@ -19708,22 +19750,22 @@
         <v>113</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="O11" s="5">
         <v>1987</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>119</v>
@@ -19737,7 +19779,7 @@
         <v>58</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W11" s="9"/>
       <c r="X11" s="5"/>
@@ -19746,10 +19788,10 @@
       </c>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB11" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="AC11" s="5" t="s">
         <v>112</v>
@@ -19763,56 +19805,59 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM11" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR11" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AN11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ11" s="5" t="s">
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AT11" s="6" t="s">
+      <c r="AU11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU11" s="5" t="s">
+      <c r="AV11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AV11" s="5" t="s">
+      <c r="AW11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AW11" s="5" t="s">
+      <c r="AX11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AX11" s="5" t="s">
+      <c r="AY11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AY11" s="5" t="s">
+      <c r="AZ11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ11" s="4" t="s">
+      <c r="BA11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -19838,22 +19883,22 @@
         <v>113</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="N12" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O12" s="5">
         <v>1964</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>119</v>
@@ -19867,7 +19912,7 @@
         <v>58</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W12" s="9"/>
       <c r="X12" s="5"/>
@@ -19876,10 +19921,10 @@
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB12" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="AC12" s="5" t="s">
         <v>112</v>
@@ -19893,56 +19938,59 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AN12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AT12" s="6" t="s">
+      <c r="AU12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU12" s="5" t="s">
+      <c r="AV12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW12" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AV12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW12" s="5" t="s">
+      <c r="AX12" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX12" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ12" s="4" t="s">
+      <c r="AZ12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA12" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
       <c r="BC12" s="4"/>
       <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -19965,25 +20013,25 @@
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="M13" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O13" s="5">
         <v>1978</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>119</v>
@@ -19997,7 +20045,7 @@
         <v>58</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="5"/>
@@ -20006,10 +20054,10 @@
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB13" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="AC13" s="5" t="s">
         <v>120</v>
@@ -20023,56 +20071,59 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM13" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="AN13" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP13" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ13" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AT13" s="6" t="s">
+      <c r="AU13" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU13" s="5" t="s">
+      <c r="AV13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW13" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AV13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW13" s="5" t="s">
+      <c r="AX13" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX13" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ13" s="4" t="s">
+      <c r="AZ13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA13" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
       <c r="BC13" s="4"/>
       <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
@@ -20098,22 +20149,22 @@
         <v>113</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="M14" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O14" s="5">
         <v>1967</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>119</v>
@@ -20127,7 +20178,7 @@
         <v>58</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W14" s="9"/>
       <c r="X14" s="5"/>
@@ -20136,10 +20187,10 @@
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB14" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="AC14" s="5" t="s">
         <v>112</v>
@@ -20153,56 +20204,59 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM14" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AO14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP14" s="4" t="s">
+      <c r="AQ14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AQ14" s="4" t="s">
+      <c r="AR14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6" t="s">
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX14" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="AT14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU14" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV14" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW14" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AX14" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ14" s="4" t="s">
+      <c r="AZ14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
       <c r="BC14" s="4"/>
       <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -20225,25 +20279,25 @@
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="O15" s="5">
         <v>1976</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>119</v>
@@ -20257,7 +20311,7 @@
         <v>58</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W15" s="9"/>
       <c r="X15" s="5"/>
@@ -20266,10 +20320,10 @@
       </c>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB15" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="AC15" s="5" t="s">
         <v>112</v>
@@ -20283,56 +20337,59 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM15" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AO15" s="4" t="s">
+      <c r="AP15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AP15" s="4" t="s">
+      <c r="AQ15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR15" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AQ15" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6" t="s">
-        <v>263</v>
-      </c>
+      <c r="AS15" s="6"/>
       <c r="AT15" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU15" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU15" s="5" t="s">
+      <c r="AV15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW15" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AV15" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW15" s="5" t="s">
+      <c r="AX15" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX15" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ15" s="4" t="s">
+      <c r="AZ15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA15" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
       <c r="BC15" s="4"/>
       <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -20361,10 +20418,10 @@
         <v>9</v>
       </c>
       <c r="L16" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>117</v>
@@ -20373,7 +20430,7 @@
         <v>1980</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>119</v>
@@ -20387,7 +20444,7 @@
         <v>58</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W16" s="9"/>
       <c r="X16" s="5"/>
@@ -20396,10 +20453,10 @@
       </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB16" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="AC16" s="5" t="s">
         <v>112</v>
@@ -20413,56 +20470,59 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM16" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="AN16" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO16" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AT16" s="6" t="s">
+      <c r="AU16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU16" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="AV16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AW16" s="5" t="s">
+      <c r="AX16" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX16" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ16" s="4" t="s">
+      <c r="AZ16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA16" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
       <c r="BC16" s="4"/>
       <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
@@ -20488,22 +20548,22 @@
         <v>113</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="N17" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O17" s="5">
         <v>1967</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>119</v>
@@ -20517,7 +20577,7 @@
         <v>58</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W17" s="9"/>
       <c r="X17" s="5"/>
@@ -20526,10 +20586,10 @@
       </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB17" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="AC17" s="5" t="s">
         <v>112</v>
@@ -20546,53 +20606,56 @@
         <v>123</v>
       </c>
       <c r="AM17" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AN17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ17" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AT17" s="6" t="s">
+      <c r="AU17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU17" s="5" t="s">
+      <c r="AV17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW17" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AV17" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW17" s="5" t="s">
+      <c r="AX17" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX17" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ17" s="4" t="s">
+      <c r="AZ17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA17" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
       <c r="BC17" s="4"/>
       <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
@@ -20615,25 +20678,25 @@
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="M18" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O18" s="5">
         <v>1993</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>119</v>
@@ -20647,23 +20710,23 @@
         <v>58</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W18" s="9"/>
       <c r="X18" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y18" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Z18" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA18" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AA18" s="5" t="s">
+      <c r="AB18" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="AC18" s="5" t="s">
         <v>112</v>
@@ -20680,53 +20743,56 @@
         <v>123</v>
       </c>
       <c r="AM18" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP18" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AN18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO18" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AP18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AT18" s="6" t="s">
+      <c r="AU18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU18" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="AV18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AW18" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="AX18" s="5" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="AY18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ18" s="4" t="s">
+      <c r="AZ18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA18" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
       <c r="BC18" s="4"/>
       <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -20749,16 +20815,16 @@
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K19" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="M19" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>117</v>
@@ -20767,7 +20833,7 @@
         <v>1972</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>119</v>
@@ -20781,7 +20847,7 @@
         <v>58</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W19" s="9"/>
       <c r="X19" s="5"/>
@@ -20790,10 +20856,10 @@
       </c>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB19" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="AC19" s="5" t="s">
         <v>112</v>
@@ -20810,62 +20876,65 @@
         <v>123</v>
       </c>
       <c r="AM19" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="AN19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP19" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ19" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AT19" s="6" t="s">
+      <c r="AU19" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU19" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="AV19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AW19" s="5" t="s">
+      <c r="AX19" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX19" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ19" s="4" t="s">
+      <c r="AZ19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA19" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA19" s="4"/>
       <c r="BB19" s="4"/>
       <c r="BC19" s="4"/>
       <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -20884,22 +20953,22 @@
         <v>113</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O20" s="5">
         <v>1985</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="4" t="s">
         <v>119</v>
@@ -20913,23 +20982,23 @@
         <v>58</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y20" s="6" t="s">
         <v>58</v>
       </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB20" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="AC20" s="5" t="s">
         <v>112</v>
@@ -20946,54 +21015,57 @@
         <v>123</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN20" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AO20" s="4" t="s">
+      <c r="AP20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AP20" s="4" t="s">
+      <c r="AQ20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR20" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AQ20" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR20" s="6" t="s">
+      <c r="AS20" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AS20" s="6"/>
       <c r="AT20" s="6"/>
-      <c r="AU20" s="5"/>
+      <c r="AU20" s="6"/>
       <c r="AV20" s="5"/>
-      <c r="AW20" s="5" t="s">
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="AX20" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="AY20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ20" s="4" t="s">
+      <c r="AZ20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA20" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="BB20" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="BC20" s="4"/>
+        <v>337</v>
+      </c>
+      <c r="BC20" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>110</v>
@@ -21014,7 +21086,7 @@
         <v>112</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -21044,52 +21116,53 @@
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="6"/>
-      <c r="AN21" s="4"/>
+      <c r="AN21" s="6"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="6"/>
       <c r="AT21" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU21" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU21" s="5" t="s">
+      <c r="AV21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AV21" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="AW21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX21" s="5"/>
       <c r="AY21" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="AZ21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA21" s="4"/>
       <c r="BB21" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="BC21" s="4"/>
+        <v>345</v>
+      </c>
+      <c r="BC21" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>112</v>
@@ -21134,332 +21207,343 @@
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="6"/>
-      <c r="AN22" s="4"/>
+      <c r="AN22" s="6"/>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="6"/>
       <c r="AT22" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU22" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AU22" s="5" t="s">
+      <c r="AV22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AV22" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW22" s="5"/>
+      <c r="AW22" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="AX22" s="5"/>
       <c r="AY22" s="5"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4" t="s">
-        <v>337</v>
-      </c>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="4"/>
       <c r="BB22" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="BC22" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="BD22" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE22" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="BC22" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="BD22" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A21">
+    <cfRule type="expression" dxfId="60" priority="86">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:N20 M2:O4 O6:O20 B2:J20 W2:W19 AU2:BA20 Y2:Y19 Q2:U19 B1:BE1 AC2:AM16 AO3:AS16 AO2:AR2 AC17:AS20">
+    <cfRule type="expression" dxfId="59" priority="85">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K20">
     <cfRule type="expression" dxfId="58" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:N20 M2:O4 O6:O20 B2:J20 W2:W19 AT2:AZ20 AC2:AQ2 Y2:Y19 AC3:AR20 Q2:U19 B1:BD1">
+  <conditionalFormatting sqref="L2:L20">
     <cfRule type="expression" dxfId="57" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K20">
+  <conditionalFormatting sqref="P2:P4 P6:P19">
     <cfRule type="expression" dxfId="56" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L20">
+  <conditionalFormatting sqref="V2:V19">
     <cfRule type="expression" dxfId="55" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P4 P6:P19">
+  <conditionalFormatting sqref="X2:X19">
     <cfRule type="expression" dxfId="54" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V19">
+  <conditionalFormatting sqref="Z2:Z19">
     <cfRule type="expression" dxfId="53" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X19">
+  <conditionalFormatting sqref="AA2:AA19">
     <cfRule type="expression" dxfId="52" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z19">
+  <conditionalFormatting sqref="AB2:AB19">
     <cfRule type="expression" dxfId="51" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA19">
+  <conditionalFormatting sqref="AT2:AT20">
     <cfRule type="expression" dxfId="50" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB19">
+  <conditionalFormatting sqref="AS2">
     <cfRule type="expression" dxfId="49" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AS20">
-    <cfRule type="expression" dxfId="48" priority="74">
+  <conditionalFormatting sqref="B21">
+    <cfRule type="expression" dxfId="48" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR2">
-    <cfRule type="expression" dxfId="47" priority="73">
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="47" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="46" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="E21:H21">
     <cfRule type="expression" dxfId="45" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="M21:O21 J21 W20 AV21:AW21 AC21:AS21 S20:T20 BA21">
     <cfRule type="expression" dxfId="44" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:H21">
+  <conditionalFormatting sqref="K21">
     <cfRule type="expression" dxfId="43" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:O21 J21 W20 AU21:AW21 AC21:AR21 S20:T20 AZ21">
+  <conditionalFormatting sqref="L21">
     <cfRule type="expression" dxfId="42" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="41" priority="56">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="40" priority="55">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS21">
-    <cfRule type="expression" dxfId="39" priority="48">
+  <conditionalFormatting sqref="AT21">
+    <cfRule type="expression" dxfId="41" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
+    <cfRule type="expression" dxfId="40" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="expression" dxfId="39" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22">
     <cfRule type="expression" dxfId="38" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+  <conditionalFormatting sqref="V22">
     <cfRule type="expression" dxfId="37" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
-    <cfRule type="expression" dxfId="36" priority="34">
+  <conditionalFormatting sqref="AU21">
+    <cfRule type="expression" dxfId="36" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
-    <cfRule type="expression" dxfId="35" priority="33">
+  <conditionalFormatting sqref="BB2:BE20">
+    <cfRule type="expression" dxfId="35" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT21">
+  <conditionalFormatting sqref="BD21:BE21">
     <cfRule type="expression" dxfId="34" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BD20">
+  <conditionalFormatting sqref="BB21">
     <cfRule type="expression" dxfId="33" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC21:BD21">
+  <conditionalFormatting sqref="A22">
     <cfRule type="expression" dxfId="32" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA21">
-    <cfRule type="expression" dxfId="31" priority="44">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="31" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="30" priority="43">
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="29" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="E22:H22">
     <cfRule type="expression" dxfId="28" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
+  <conditionalFormatting sqref="M22:O22 J22 W22 AV22:AW22 Y22 AC22:AS22 Q22:U22 AY22:BA22">
     <cfRule type="expression" dxfId="27" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:H22">
-    <cfRule type="expression" dxfId="26" priority="38">
+  <conditionalFormatting sqref="X22">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:O22 J22 W22 AU22:AZ22 Y22 AC22:AR22 Q22:U22">
-    <cfRule type="expression" dxfId="25" priority="37">
+  <conditionalFormatting sqref="Z22">
+    <cfRule type="expression" dxfId="25" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X22">
+  <conditionalFormatting sqref="AA22">
     <cfRule type="expression" dxfId="24" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z22">
+  <conditionalFormatting sqref="AB22">
     <cfRule type="expression" dxfId="23" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22">
+  <conditionalFormatting sqref="AT22">
     <cfRule type="expression" dxfId="22" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB22">
+  <conditionalFormatting sqref="AU22">
     <cfRule type="expression" dxfId="21" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS22">
+  <conditionalFormatting sqref="BC22:BE22">
     <cfRule type="expression" dxfId="20" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT22">
+  <conditionalFormatting sqref="BB22">
     <cfRule type="expression" dxfId="19" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB22:BD22">
+  <conditionalFormatting sqref="I21:I22">
     <cfRule type="expression" dxfId="18" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA22">
+  <conditionalFormatting sqref="AY21:AZ21">
     <cfRule type="expression" dxfId="17" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I22">
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX21:AY21">
-    <cfRule type="expression" dxfId="15" priority="23">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20">
+    <cfRule type="expression" dxfId="15" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA20">
     <cfRule type="expression" dxfId="13" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21">
+  <conditionalFormatting sqref="AB20">
     <cfRule type="expression" dxfId="12" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA20">
+  <conditionalFormatting sqref="Y20">
     <cfRule type="expression" dxfId="11" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB20">
-    <cfRule type="expression" dxfId="10" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y20">
-    <cfRule type="expression" dxfId="9" priority="16">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z20">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:R20">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20">
     <cfRule type="expression" dxfId="7" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U20">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V20">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21 Y21 Q21:U21">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC21">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX21:AX22">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB21">
+  <conditionalFormatting sqref="AN2:AN16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -21468,19 +21552,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I22">
       <formula1>"Individual Account Only,Joint Account Only,Both an Individual and a Joint Account"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA22">
       <formula1>"MOBILE,EMAIL"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D22">
       <formula1>"NEW CUSTOMER,EXISTING CUSTOMER, BOTH NEW CUSTOMERS, BOTH EXISTING CUSTOMERS, ONE NEW AND ONE EXISTING CUSTOMER"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AW22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX20">
       <formula1>"By email,By mobile,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2:AW22">
       <formula1>"Within new fixed term account,Reference account"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV22">
       <formula1>"MONTHLY,ANNUALLY"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J22">
@@ -21498,7 +21582,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22">
       <formula1>"INDIVIDUAL ACCOUNT,JOINT ACCOUNT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:H22 AX2:AY22 AC2:AK22 R2:T20 R22:T22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:H22 AY2:AZ22 AC2:AK22 R2:T20 R22:T22">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
